--- a/xlsdemo/2007.xlsx
+++ b/xlsdemo/2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\.github\trrs\xlsdemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADB8721-9F32-416D-BF23-A830F771687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58381FB-40F7-46D0-A3F0-16A681E58804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32550" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>celsius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z是十四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -88,6 +97,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190004</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2843126</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>150112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FA7D58-149F-4ED4-B764-435A108249F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="623220" y="216207"/>
+          <a:ext cx="1786689" cy="2653122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,15 +417,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,17 +436,45 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>123</v>
       </c>
       <c r="B2">
         <v>3323</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1212</v>
+      </c>
+      <c r="E4">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>